--- a/shared/dmn-rules/weight_class.dmn.xlsx
+++ b/shared/dmn-rules/weight_class.dmn.xlsx
@@ -673,7 +673,11 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="n"/>
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
           <t>"N"</t>
@@ -696,7 +700,11 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="n"/>
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
           <t>"N"</t>
@@ -719,7 +727,11 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="n"/>
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
           <t>"N"</t>
@@ -742,7 +754,11 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="n"/>
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
           <t>"N"</t>
@@ -765,7 +781,11 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="n"/>
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
           <t>"N"</t>
@@ -788,7 +808,11 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="n"/>
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
           <t>"N"</t>
